--- a/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrmd_extracted_properties.xlsx
+++ b/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrmd_extracted_properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
   <si>
     <t>log_name</t>
   </si>
@@ -109,12 +109,6 @@
     <t>NBO_charge_C2</t>
   </si>
   <si>
-    <t>NMR_shift_C1</t>
-  </si>
-  <si>
-    <t>NMR_shift_C2</t>
-  </si>
-  <si>
     <t>distance_C1_C2(Å)</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>Sterimol_B5_C1_C2(Å)_morfeus</t>
-  </si>
-  <si>
-    <t>pyramidalization_Gavrish_C1(°)</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1</t>
   </si>
   <si>
     <t>C1_C2_Bond_Order</t>
@@ -587,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,31 +702,19 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -756,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K2">
         <v>-456.606644</v>
@@ -824,67 +800,55 @@
       <c r="AF2">
         <v>0.24652</v>
       </c>
-      <c r="AG2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>71</v>
+      <c r="AG2">
+        <v>1.40552</v>
+      </c>
+      <c r="AH2">
+        <v>84.64940599173553</v>
       </c>
       <c r="AI2">
-        <v>1.40552</v>
+        <v>94.73140495867769</v>
       </c>
       <c r="AJ2">
-        <v>84.64940599173553</v>
+        <v>8.797604341210732</v>
       </c>
       <c r="AK2">
-        <v>94.73140495867769</v>
+        <v>1.700282309922946</v>
       </c>
       <c r="AL2">
-        <v>8.797604341210732</v>
-      </c>
-      <c r="AM2">
-        <v>1.700282309922946</v>
-      </c>
-      <c r="AN2">
         <v>4.413689539907482</v>
       </c>
-      <c r="AO2">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AP2">
-        <v>0.0001750313116540436</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>71</v>
+      <c r="AM2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -893,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>-456.587224</v>
@@ -961,76 +925,64 @@
       <c r="AF3">
         <v>0.20413</v>
       </c>
-      <c r="AG3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>71</v>
+      <c r="AG3">
+        <v>1.4785</v>
+      </c>
+      <c r="AH3">
+        <v>86.26678719008265</v>
       </c>
       <c r="AI3">
-        <v>1.4785</v>
+        <v>95.77414772727273</v>
       </c>
       <c r="AJ3">
-        <v>86.26678719008265</v>
+        <v>7.016736882563977</v>
       </c>
       <c r="AK3">
-        <v>95.77414772727273</v>
+        <v>2.019845940748472</v>
       </c>
       <c r="AL3">
-        <v>7.016736882563977</v>
-      </c>
-      <c r="AM3">
-        <v>2.019845940748472</v>
-      </c>
-      <c r="AN3">
         <v>5.717709155491042</v>
       </c>
-      <c r="AO3">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AP3">
-        <v>0.1471382082192786</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>71</v>
+      <c r="AM3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>-495.921385</v>
@@ -1098,76 +1050,64 @@
       <c r="AF4">
         <v>0.25924</v>
       </c>
-      <c r="AG4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>71</v>
+      <c r="AG4">
+        <v>1.41233</v>
+      </c>
+      <c r="AH4">
+        <v>92.00025826446281</v>
       </c>
       <c r="AI4">
-        <v>1.41233</v>
+        <v>94.65069731404959</v>
       </c>
       <c r="AJ4">
-        <v>92.00025826446281</v>
+        <v>8.826076555796934</v>
       </c>
       <c r="AK4">
-        <v>94.65069731404959</v>
+        <v>1.839073259825334</v>
       </c>
       <c r="AL4">
-        <v>8.826076555796934</v>
-      </c>
-      <c r="AM4">
-        <v>1.839073259825334</v>
-      </c>
-      <c r="AN4">
         <v>4.376254323248389</v>
       </c>
-      <c r="AO4">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AP4">
-        <v>0.0001542465140779137</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>71</v>
+      <c r="AM4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>-495.914512</v>
@@ -1235,52 +1175,40 @@
       <c r="AF5">
         <v>0.13124</v>
       </c>
-      <c r="AG5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>71</v>
+      <c r="AG5">
+        <v>1.41066</v>
+      </c>
+      <c r="AH5">
+        <v>92.34568698347107</v>
       </c>
       <c r="AI5">
-        <v>1.41066</v>
+        <v>95.78706095041323</v>
       </c>
       <c r="AJ5">
-        <v>92.34568698347107</v>
+        <v>7.18210777361937</v>
       </c>
       <c r="AK5">
-        <v>95.78706095041323</v>
+        <v>1.821027276203751</v>
       </c>
       <c r="AL5">
-        <v>7.18210777361937</v>
-      </c>
-      <c r="AM5">
-        <v>1.821027276203751</v>
-      </c>
-      <c r="AN5">
         <v>5.662686495953656</v>
       </c>
-      <c r="AO5">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AP5">
-        <v>4.582803147754092E-05</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>71</v>
+      <c r="AM5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1304,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K6">
         <v>-302.96869</v>
@@ -1372,64 +1300,52 @@
       <c r="AF6">
         <v>0.25241</v>
       </c>
-      <c r="AG6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>71</v>
+      <c r="AG6">
+        <v>1.41083</v>
+      </c>
+      <c r="AH6">
+        <v>84.54287190082644</v>
       </c>
       <c r="AI6">
-        <v>1.41083</v>
+        <v>94.74431818181817</v>
       </c>
       <c r="AJ6">
-        <v>84.54287190082644</v>
+        <v>6.689929189061649</v>
       </c>
       <c r="AK6">
-        <v>94.74431818181817</v>
+        <v>1.700415180987107</v>
       </c>
       <c r="AL6">
-        <v>6.689929189061649</v>
-      </c>
-      <c r="AM6">
-        <v>1.700415180987107</v>
-      </c>
-      <c r="AN6">
         <v>3.254749701428357</v>
       </c>
-      <c r="AO6">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AP6">
-        <v>2.844557183823626E-05</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>71</v>
+      <c r="AM6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -1441,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>-302.968962</v>
@@ -1509,67 +1425,55 @@
       <c r="AF7">
         <v>0.08952</v>
       </c>
-      <c r="AG7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>71</v>
+      <c r="AG7">
+        <v>1.40995</v>
+      </c>
+      <c r="AH7">
+        <v>84.79467975206612</v>
       </c>
       <c r="AI7">
-        <v>1.40995</v>
+        <v>95.94524793388429</v>
       </c>
       <c r="AJ7">
-        <v>84.79467975206612</v>
+        <v>6.127653431040216</v>
       </c>
       <c r="AK7">
-        <v>95.94524793388429</v>
+        <v>1.7</v>
       </c>
       <c r="AL7">
-        <v>6.127653431040216</v>
-      </c>
-      <c r="AM7">
-        <v>1.7</v>
-      </c>
-      <c r="AN7">
         <v>3.266518267835377</v>
       </c>
-      <c r="AO7">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AP7">
-        <v>4.709170623532936E-06</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>71</v>
+      <c r="AM7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1578,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K8">
         <v>-302.967347</v>
@@ -1646,55 +1550,43 @@
       <c r="AF8">
         <v>-0.21648</v>
       </c>
-      <c r="AG8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>71</v>
+      <c r="AG8">
+        <v>1.40245</v>
+      </c>
+      <c r="AH8">
+        <v>85.05940082644628</v>
       </c>
       <c r="AI8">
-        <v>1.40245</v>
+        <v>96.875</v>
       </c>
       <c r="AJ8">
-        <v>85.05940082644628</v>
+        <v>6.692528636975712</v>
       </c>
       <c r="AK8">
-        <v>96.875</v>
+        <v>1.700462634393815</v>
       </c>
       <c r="AL8">
-        <v>6.692528636975712</v>
-      </c>
-      <c r="AM8">
-        <v>1.700462634393815</v>
-      </c>
-      <c r="AN8">
         <v>3.262784862130815</v>
       </c>
-      <c r="AO8">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AP8">
-        <v>0.0001531931169143332</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>71</v>
+      <c r="AM8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1703,19 +1595,19 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K9">
         <v>-342.283197</v>
@@ -1783,76 +1675,64 @@
       <c r="AF9">
         <v>0.26549</v>
       </c>
-      <c r="AG9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>71</v>
+      <c r="AG9">
+        <v>1.41694</v>
+      </c>
+      <c r="AH9">
+        <v>92.00671487603306</v>
       </c>
       <c r="AI9">
-        <v>1.41694</v>
+        <v>94.67975206611571</v>
       </c>
       <c r="AJ9">
-        <v>92.00671487603306</v>
+        <v>6.699441854518188</v>
       </c>
       <c r="AK9">
-        <v>94.67975206611571</v>
+        <v>1.835322039787969</v>
       </c>
       <c r="AL9">
-        <v>6.699441854518188</v>
-      </c>
-      <c r="AM9">
-        <v>1.835322039787969</v>
-      </c>
-      <c r="AN9">
         <v>3.295653866340422</v>
       </c>
-      <c r="AO9">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AP9">
-        <v>3.261711797565641E-05</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>71</v>
+      <c r="AM9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K10">
         <v>-342.283768</v>
@@ -1920,52 +1800,40 @@
       <c r="AF10">
         <v>0.10299</v>
       </c>
-      <c r="AG10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>71</v>
+      <c r="AG10">
+        <v>1.41634</v>
+      </c>
+      <c r="AH10">
+        <v>92.04545454545455</v>
       </c>
       <c r="AI10">
-        <v>1.41634</v>
+        <v>95.85162706611571</v>
       </c>
       <c r="AJ10">
-        <v>92.04545454545455</v>
+        <v>6.140001830158253</v>
       </c>
       <c r="AK10">
-        <v>95.85162706611571</v>
+        <v>1.833992674615168</v>
       </c>
       <c r="AL10">
-        <v>6.140001830158253</v>
-      </c>
-      <c r="AM10">
-        <v>1.833992674615168</v>
-      </c>
-      <c r="AN10">
         <v>3.270054036323949</v>
       </c>
-      <c r="AO10">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AP10">
-        <v>0.00010475404666875</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>71</v>
+      <c r="AM10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1974,22 +1842,22 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K11">
         <v>-342.279133</v>
@@ -2057,44 +1925,32 @@
       <c r="AF11">
         <v>-0.20856</v>
       </c>
-      <c r="AG11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>71</v>
+      <c r="AG11">
+        <v>1.41069</v>
+      </c>
+      <c r="AH11">
+        <v>92.03899793388429</v>
       </c>
       <c r="AI11">
-        <v>1.41069</v>
+        <v>96.86531508264463</v>
       </c>
       <c r="AJ11">
-        <v>92.03899793388429</v>
+        <v>6.701352369905606</v>
       </c>
       <c r="AK11">
-        <v>96.86531508264463</v>
+        <v>1.808425574989446</v>
       </c>
       <c r="AL11">
-        <v>6.701352369905606</v>
-      </c>
-      <c r="AM11">
-        <v>1.808425574989446</v>
-      </c>
-      <c r="AN11">
         <v>3.264943661955711</v>
       </c>
-      <c r="AO11">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AP11">
-        <v>6.405954750363721E-05</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>71</v>
+      <c r="AM11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
